--- a/testData/Test_New_Data.xlsx
+++ b/testData/Test_New_Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>EmpName</t>
   </si>
@@ -31,31 +31,19 @@
     <t>Status</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>invalid</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>rajqa</t>
-  </si>
-  <si>
-    <t>Rajqa1234</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>Rajqa12345</t>
-  </si>
-  <si>
-    <t>shivqa</t>
-  </si>
-  <si>
-    <t>Shiva123</t>
   </si>
 </sst>
 </file>
@@ -88,12 +76,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,109 +323,73 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
